--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Anxa1-Fpr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Anxa1-Fpr2.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>50.24752933333333</v>
+        <v>17.81824933333333</v>
       </c>
       <c r="H2">
-        <v>150.742588</v>
+        <v>53.454748</v>
       </c>
       <c r="I2">
-        <v>0.1294604271951564</v>
+        <v>0.05180179233147032</v>
       </c>
       <c r="J2">
-        <v>0.1294604271951564</v>
+        <v>0.05180179233147034</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -555,28 +555,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>35.86137133333333</v>
+        <v>0.05237733333333333</v>
       </c>
       <c r="N2">
-        <v>107.584114</v>
+        <v>0.157132</v>
       </c>
       <c r="O2">
-        <v>0.6778966622414776</v>
+        <v>0.01249705432598326</v>
       </c>
       <c r="P2">
-        <v>0.6778966622414775</v>
+        <v>0.01249705432598326</v>
       </c>
       <c r="Q2">
-        <v>1801.945308005225</v>
+        <v>0.9332723847484444</v>
       </c>
       <c r="R2">
-        <v>16217.50777204703</v>
+        <v>8.399451462736</v>
       </c>
       <c r="S2">
-        <v>0.08776079148795232</v>
+        <v>0.0006473698129496876</v>
       </c>
       <c r="T2">
-        <v>0.08776079148795231</v>
+        <v>0.0006473698129496878</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>50.24752933333333</v>
+        <v>17.81824933333333</v>
       </c>
       <c r="H3">
-        <v>150.742588</v>
+        <v>53.454748</v>
       </c>
       <c r="I3">
-        <v>0.1294604271951564</v>
+        <v>0.05180179233147032</v>
       </c>
       <c r="J3">
-        <v>0.1294604271951564</v>
+        <v>0.05180179233147034</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>1.693616</v>
       </c>
       <c r="O3">
-        <v>0.01067161861386675</v>
+        <v>0.1346970137168397</v>
       </c>
       <c r="P3">
-        <v>0.01067161861386675</v>
+        <v>0.1346970137168397</v>
       </c>
       <c r="Q3">
-        <v>28.36667321313422</v>
+        <v>10.05909072097422</v>
       </c>
       <c r="R3">
-        <v>255.300058918208</v>
+        <v>90.531816488768</v>
       </c>
       <c r="S3">
-        <v>0.001381552304614972</v>
+        <v>0.006977546732228941</v>
       </c>
       <c r="T3">
-        <v>0.001381552304614972</v>
+        <v>0.006977546732228944</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>50.24752933333333</v>
+        <v>17.81824933333333</v>
       </c>
       <c r="H4">
-        <v>150.742588</v>
+        <v>53.454748</v>
       </c>
       <c r="I4">
-        <v>0.1294604271951564</v>
+        <v>0.05180179233147032</v>
       </c>
       <c r="J4">
-        <v>0.1294604271951564</v>
+        <v>0.05180179233147034</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -685,22 +685,22 @@
         <v>0.261745</v>
       </c>
       <c r="O4">
-        <v>0.001649277530494842</v>
+        <v>0.020817156814363</v>
       </c>
       <c r="P4">
-        <v>0.001649277530494842</v>
+        <v>0.020817156814363</v>
       </c>
       <c r="Q4">
-        <v>4.38401318845111</v>
+        <v>1.554612557251111</v>
       </c>
       <c r="R4">
-        <v>39.45611869606</v>
+        <v>13.99151301526</v>
       </c>
       <c r="S4">
-        <v>0.0002135161736612348</v>
+        <v>0.001078366034229285</v>
       </c>
       <c r="T4">
-        <v>0.0002135161736612348</v>
+        <v>0.001078366034229285</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>50.24752933333333</v>
+        <v>17.81824933333333</v>
       </c>
       <c r="H5">
-        <v>150.742588</v>
+        <v>53.454748</v>
       </c>
       <c r="I5">
-        <v>0.1294604271951564</v>
+        <v>0.05180179233147032</v>
       </c>
       <c r="J5">
-        <v>0.1294604271951564</v>
+        <v>0.05180179233147034</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.38778266666667</v>
+        <v>3.48701</v>
       </c>
       <c r="N5">
-        <v>49.163348</v>
+        <v>10.46103</v>
       </c>
       <c r="O5">
-        <v>0.3097824416141609</v>
+        <v>0.831988775142814</v>
       </c>
       <c r="P5">
-        <v>0.3097824416141609</v>
+        <v>0.831988775142814</v>
       </c>
       <c r="Q5">
-        <v>823.4455902516247</v>
+        <v>62.13241360782667</v>
       </c>
       <c r="R5">
-        <v>7411.010312264623</v>
+        <v>559.19172247044</v>
       </c>
       <c r="S5">
-        <v>0.04010456722892786</v>
+        <v>0.04309850975206241</v>
       </c>
       <c r="T5">
-        <v>0.04010456722892786</v>
+        <v>0.04309850975206243</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>454.26828</v>
       </c>
       <c r="I6">
-        <v>0.3901337131747328</v>
+        <v>0.4402211587141748</v>
       </c>
       <c r="J6">
-        <v>0.3901337131747328</v>
+        <v>0.4402211587141748</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -803,28 +803,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>35.86137133333333</v>
+        <v>0.05237733333333333</v>
       </c>
       <c r="N6">
-        <v>107.584114</v>
+        <v>0.157132</v>
       </c>
       <c r="O6">
-        <v>0.6778966622414776</v>
+        <v>0.01249705432598326</v>
       </c>
       <c r="P6">
-        <v>0.6778966622414775</v>
+        <v>0.01249705432598326</v>
       </c>
       <c r="Q6">
-        <v>5430.227824678213</v>
+        <v>7.931120374773333</v>
       </c>
       <c r="R6">
-        <v>48872.05042210392</v>
+        <v>71.38008337296</v>
       </c>
       <c r="S6">
-        <v>0.2644703419890254</v>
+        <v>0.00550146773589834</v>
       </c>
       <c r="T6">
-        <v>0.2644703419890253</v>
+        <v>0.00550146773589834</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>454.26828</v>
       </c>
       <c r="I7">
-        <v>0.3901337131747328</v>
+        <v>0.4402211587141748</v>
       </c>
       <c r="J7">
-        <v>0.3901337131747328</v>
+        <v>0.4402211587141748</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>1.693616</v>
       </c>
       <c r="O7">
-        <v>0.01067161861386675</v>
+        <v>0.1346970137168397</v>
       </c>
       <c r="P7">
-        <v>0.01067161861386675</v>
+        <v>0.1346970137168397</v>
       </c>
       <c r="Q7">
         <v>85.48400303338667</v>
@@ -883,10 +883,10 @@
         <v>769.35602730048</v>
       </c>
       <c r="S7">
-        <v>0.004163358195412431</v>
+        <v>0.05929647545376628</v>
       </c>
       <c r="T7">
-        <v>0.00416335819541243</v>
+        <v>0.05929647545376629</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>454.26828</v>
       </c>
       <c r="I8">
-        <v>0.3901337131747328</v>
+        <v>0.4402211587141748</v>
       </c>
       <c r="J8">
-        <v>0.3901337131747328</v>
+        <v>0.4402211587141748</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -933,10 +933,10 @@
         <v>0.261745</v>
       </c>
       <c r="O8">
-        <v>0.001649277530494842</v>
+        <v>0.020817156814363</v>
       </c>
       <c r="P8">
-        <v>0.001649277530494842</v>
+        <v>0.020817156814363</v>
       </c>
       <c r="Q8">
         <v>13.21138343873333</v>
@@ -945,10 +945,10 @@
         <v>118.9024509486</v>
       </c>
       <c r="S8">
-        <v>0.0006434387670276064</v>
+        <v>0.009164152893953561</v>
       </c>
       <c r="T8">
-        <v>0.0006434387670276063</v>
+        <v>0.009164152893953562</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>454.26828</v>
       </c>
       <c r="I9">
-        <v>0.3901337131747328</v>
+        <v>0.4402211587141748</v>
       </c>
       <c r="J9">
-        <v>0.3901337131747328</v>
+        <v>0.4402211587141748</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>16.38778266666667</v>
+        <v>3.48701</v>
       </c>
       <c r="N9">
-        <v>49.163348</v>
+        <v>10.46103</v>
       </c>
       <c r="O9">
-        <v>0.3097824416141609</v>
+        <v>0.831988775142814</v>
       </c>
       <c r="P9">
-        <v>0.3097824416141609</v>
+        <v>0.831988775142814</v>
       </c>
       <c r="Q9">
-        <v>2481.483281666827</v>
+        <v>528.0126783476001</v>
       </c>
       <c r="R9">
-        <v>22333.34953500144</v>
+        <v>4752.1141051284</v>
       </c>
       <c r="S9">
-        <v>0.1208565742232675</v>
+        <v>0.3662590626305566</v>
       </c>
       <c r="T9">
-        <v>0.1208565742232674</v>
+        <v>0.3662590626305566</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>101.3126446666667</v>
+        <v>100.6958183333333</v>
       </c>
       <c r="H10">
-        <v>303.937934</v>
+        <v>302.087455</v>
       </c>
       <c r="I10">
-        <v>0.261027326772798</v>
+        <v>0.29274614875843</v>
       </c>
       <c r="J10">
-        <v>0.2610273267727979</v>
+        <v>0.2927461487584301</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1051,28 +1051,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>35.86137133333333</v>
+        <v>0.05237733333333333</v>
       </c>
       <c r="N10">
-        <v>107.584114</v>
+        <v>0.157132</v>
       </c>
       <c r="O10">
-        <v>0.6778966622414776</v>
+        <v>0.01249705432598326</v>
       </c>
       <c r="P10">
-        <v>0.6778966622414775</v>
+        <v>0.01249705432598326</v>
       </c>
       <c r="Q10">
-        <v>3633.210371153386</v>
+        <v>5.274178442117778</v>
       </c>
       <c r="R10">
-        <v>32698.89334038048</v>
+        <v>47.46760597906</v>
       </c>
       <c r="S10">
-        <v>0.1769495535730952</v>
+        <v>0.003658464524756476</v>
       </c>
       <c r="T10">
-        <v>0.1769495535730952</v>
+        <v>0.003658464524756477</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>101.3126446666667</v>
+        <v>100.6958183333333</v>
       </c>
       <c r="H11">
-        <v>303.937934</v>
+        <v>302.087455</v>
       </c>
       <c r="I11">
-        <v>0.261027326772798</v>
+        <v>0.29274614875843</v>
       </c>
       <c r="J11">
-        <v>0.2610273267727979</v>
+        <v>0.2927461487584301</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>1.693616</v>
       </c>
       <c r="O11">
-        <v>0.01067161861386675</v>
+        <v>0.1346970137168397</v>
       </c>
       <c r="P11">
-        <v>0.01067161861386675</v>
+        <v>0.1346970137168397</v>
       </c>
       <c r="Q11">
-        <v>57.19490533659378</v>
+        <v>56.8466830208089</v>
       </c>
       <c r="R11">
-        <v>514.754148029344</v>
+        <v>511.6201471872801</v>
       </c>
       <c r="S11">
-        <v>0.00278558407911647</v>
+        <v>0.03943203201486625</v>
       </c>
       <c r="T11">
-        <v>0.002785584079116469</v>
+        <v>0.03943203201486626</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>101.3126446666667</v>
+        <v>100.6958183333333</v>
       </c>
       <c r="H12">
-        <v>303.937934</v>
+        <v>302.087455</v>
       </c>
       <c r="I12">
-        <v>0.261027326772798</v>
+        <v>0.29274614875843</v>
       </c>
       <c r="J12">
-        <v>0.2610273267727979</v>
+        <v>0.2927461487584301</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1181,22 +1181,22 @@
         <v>0.261745</v>
       </c>
       <c r="O12">
-        <v>0.001649277530494842</v>
+        <v>0.020817156814363</v>
       </c>
       <c r="P12">
-        <v>0.001649277530494842</v>
+        <v>0.020817156814363</v>
       </c>
       <c r="Q12">
-        <v>8.83935939275889</v>
+        <v>8.785542323219445</v>
       </c>
       <c r="R12">
-        <v>79.55423453483002</v>
+        <v>79.06988090897501</v>
       </c>
       <c r="S12">
-        <v>0.0004305065048915104</v>
+        <v>0.006094142485505077</v>
       </c>
       <c r="T12">
-        <v>0.0004305065048915104</v>
+        <v>0.006094142485505078</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>101.3126446666667</v>
+        <v>100.6958183333333</v>
       </c>
       <c r="H13">
-        <v>303.937934</v>
+        <v>302.087455</v>
       </c>
       <c r="I13">
-        <v>0.261027326772798</v>
+        <v>0.29274614875843</v>
       </c>
       <c r="J13">
-        <v>0.2610273267727979</v>
+        <v>0.2927461487584301</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>16.38778266666667</v>
+        <v>3.48701</v>
       </c>
       <c r="N13">
-        <v>49.163348</v>
+        <v>10.46103</v>
       </c>
       <c r="O13">
-        <v>0.3097824416141609</v>
+        <v>0.831988775142814</v>
       </c>
       <c r="P13">
-        <v>0.3097824416141609</v>
+        <v>0.831988775142814</v>
       </c>
       <c r="Q13">
-        <v>1660.289602182559</v>
+        <v>351.1273254865167</v>
       </c>
       <c r="R13">
-        <v>14942.60641964303</v>
+        <v>3160.145929378651</v>
       </c>
       <c r="S13">
-        <v>0.08086168261569478</v>
+        <v>0.2435615097333022</v>
       </c>
       <c r="T13">
-        <v>0.08086168261569476</v>
+        <v>0.2435615097333023</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>85.147481</v>
+        <v>74.032918</v>
       </c>
       <c r="H14">
-        <v>255.442443</v>
+        <v>222.098754</v>
       </c>
       <c r="I14">
-        <v>0.2193785328573129</v>
+        <v>0.2152309001959248</v>
       </c>
       <c r="J14">
-        <v>0.2193785328573129</v>
+        <v>0.2152309001959249</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1299,28 +1299,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>35.86137133333333</v>
+        <v>0.05237733333333333</v>
       </c>
       <c r="N14">
-        <v>107.584114</v>
+        <v>0.157132</v>
       </c>
       <c r="O14">
-        <v>0.6778966622414776</v>
+        <v>0.01249705432598326</v>
       </c>
       <c r="P14">
-        <v>0.6778966622414775</v>
+        <v>0.01249705432598326</v>
       </c>
       <c r="Q14">
-        <v>3053.505434238944</v>
+        <v>3.877646823725333</v>
       </c>
       <c r="R14">
-        <v>27481.5489081505</v>
+        <v>34.898821413528</v>
       </c>
       <c r="S14">
-        <v>0.1487159751914048</v>
+        <v>0.002689752252378753</v>
       </c>
       <c r="T14">
-        <v>0.1487159751914047</v>
+        <v>0.002689752252378754</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>85.147481</v>
+        <v>74.032918</v>
       </c>
       <c r="H15">
-        <v>255.442443</v>
+        <v>222.098754</v>
       </c>
       <c r="I15">
-        <v>0.2193785328573129</v>
+        <v>0.2152309001959248</v>
       </c>
       <c r="J15">
-        <v>0.2193785328573129</v>
+        <v>0.2152309001959249</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>1.693616</v>
       </c>
       <c r="O15">
-        <v>0.01067161861386675</v>
+        <v>0.1346970137168397</v>
       </c>
       <c r="P15">
-        <v>0.01067161861386675</v>
+        <v>0.1346970137168397</v>
       </c>
       <c r="Q15">
-        <v>48.06904539376533</v>
+        <v>41.79444481716266</v>
       </c>
       <c r="R15">
-        <v>432.621408543888</v>
+        <v>376.150003354464</v>
       </c>
       <c r="S15">
-        <v>0.002341124034722879</v>
+        <v>0.02899095951597825</v>
       </c>
       <c r="T15">
-        <v>0.002341124034722879</v>
+        <v>0.02899095951597826</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>85.147481</v>
+        <v>74.032918</v>
       </c>
       <c r="H16">
-        <v>255.442443</v>
+        <v>222.098754</v>
       </c>
       <c r="I16">
-        <v>0.2193785328573129</v>
+        <v>0.2152309001959248</v>
       </c>
       <c r="J16">
-        <v>0.2193785328573129</v>
+        <v>0.2152309001959249</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1429,22 +1429,22 @@
         <v>0.261745</v>
       </c>
       <c r="O16">
-        <v>0.001649277530494842</v>
+        <v>0.020817156814363</v>
       </c>
       <c r="P16">
-        <v>0.001649277530494842</v>
+        <v>0.020817156814363</v>
       </c>
       <c r="Q16">
-        <v>7.428975804781667</v>
+        <v>6.459248707303333</v>
       </c>
       <c r="R16">
-        <v>66.860782243035</v>
+        <v>58.13323836572999</v>
       </c>
       <c r="S16">
-        <v>0.0003618160849144906</v>
+        <v>0.00448049540067508</v>
       </c>
       <c r="T16">
-        <v>0.0003618160849144906</v>
+        <v>0.004480495400675082</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>85.147481</v>
+        <v>74.032918</v>
       </c>
       <c r="H17">
-        <v>255.442443</v>
+        <v>222.098754</v>
       </c>
       <c r="I17">
-        <v>0.2193785328573129</v>
+        <v>0.2152309001959248</v>
       </c>
       <c r="J17">
-        <v>0.2193785328573129</v>
+        <v>0.2152309001959249</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>16.38778266666667</v>
+        <v>3.48701</v>
       </c>
       <c r="N17">
-        <v>49.163348</v>
+        <v>10.46103</v>
       </c>
       <c r="O17">
-        <v>0.3097824416141609</v>
+        <v>0.831988775142814</v>
       </c>
       <c r="P17">
-        <v>0.3097824416141609</v>
+        <v>0.831988775142814</v>
       </c>
       <c r="Q17">
-        <v>1395.378413242129</v>
+        <v>258.15352539518</v>
       </c>
       <c r="R17">
-        <v>12558.40571917916</v>
+        <v>2323.38172855662</v>
       </c>
       <c r="S17">
-        <v>0.06795961754627081</v>
+        <v>0.1790696930268927</v>
       </c>
       <c r="T17">
-        <v>0.06795961754627081</v>
+        <v>0.1790696930268928</v>
       </c>
     </row>
   </sheetData>
